--- a/TESTSUITE/TS03.xlsx
+++ b/TESTSUITE/TS03.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12520" tabRatio="462" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10176" tabRatio="462" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ListTestcase" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,13 @@
     <sheet name="Param" sheetId="4" r:id="rId4"/>
     <sheet name="Library" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="152">
   <si>
     <t>Testcase</t>
   </si>
@@ -494,14 +495,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,144 +525,8 @@
       <name val="Palatino Linotype"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,7 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -698,188 +557,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -902,251 +581,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1164,8 +604,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="43" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1190,68 +630,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
-    <cellStyle name="Bad" xfId="22" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
-    <cellStyle name="Total" xfId="24" builtinId="25"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="Currency" xfId="26" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
-    <cellStyle name="Note" xfId="28" builtinId="10"/>
-    <cellStyle name="Input" xfId="29" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
-    <cellStyle name="Good" xfId="32" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="Title" xfId="38" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
-    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
-    <cellStyle name="Link" xfId="43" builtinId="8"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1509,23 +906,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="41.2890625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="50.859375" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="50.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1573,31 +970,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A27" sqref="$A27:$XFD27"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.4296875" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="46.859375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.859375" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1620,7 +1015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="15" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="34.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
@@ -1637,7 +1032,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" s="15" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" s="15" customFormat="1" ht="34.5" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="18" t="s">
@@ -1650,7 +1045,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" s="15" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" s="15" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
@@ -1667,7 +1062,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" s="15" customFormat="1" ht="33.75" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="33.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1682,7 +1077,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" s="15" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="6" spans="1:7" s="15" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A6" s="21"/>
       <c r="B6" s="13" t="s">
         <v>25</v>
@@ -1699,7 +1094,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" s="15" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="7" spans="1:7" s="15" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
         <v>29</v>
@@ -1714,7 +1109,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" s="15" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="8" spans="1:7" s="15" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
         <v>32</v>
@@ -1729,7 +1124,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
@@ -1742,7 +1137,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -1759,7 +1154,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
@@ -1772,7 +1167,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A12" s="13"/>
       <c r="B12" s="13" t="s">
         <v>35</v>
@@ -1789,7 +1184,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="13" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
         <v>37</v>
@@ -1806,7 +1201,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="14" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
         <v>40</v>
@@ -1823,7 +1218,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="15" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
         <v>40</v>
@@ -1840,7 +1235,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="16" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
         <v>37</v>
@@ -1857,7 +1252,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="17" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
         <v>40</v>
@@ -1874,7 +1269,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="18" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
         <v>40</v>
@@ -1891,7 +1286,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" s="16" customFormat="1" ht="16" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="19" spans="1:7" s="16" customFormat="1" ht="16.05" customHeight="1" outlineLevel="1">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
         <v>35</v>
@@ -1908,7 +1303,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="20" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
         <v>37</v>
@@ -1925,7 +1320,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="21" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A21" s="13"/>
       <c r="B21" s="13" t="s">
         <v>40</v>
@@ -1942,7 +1337,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="22" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A22" s="13"/>
       <c r="B22" s="13" t="s">
         <v>40</v>
@@ -1959,7 +1354,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="23" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A23" s="13"/>
       <c r="B23" s="13" t="s">
         <v>35</v>
@@ -1976,7 +1371,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="24" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A24" s="13"/>
       <c r="B24" s="13" t="s">
         <v>37</v>
@@ -1993,7 +1388,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="25" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A25" s="13"/>
       <c r="B25" s="13" t="s">
         <v>40</v>
@@ -2010,7 +1405,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="26" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A26" s="13"/>
       <c r="B26" s="13" t="s">
         <v>40</v>
@@ -2027,7 +1422,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="27" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A27" s="13" t="s">
         <v>7</v>
       </c>
@@ -2044,7 +1439,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="28" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13" t="s">
@@ -2057,7 +1452,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="29" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="s">
         <v>35</v>
@@ -2074,7 +1469,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="30" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A30" s="13"/>
       <c r="B30" s="13" t="s">
         <v>35</v>
@@ -2091,7 +1486,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="31" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
         <v>37</v>
@@ -2108,7 +1503,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="32" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A32" s="13"/>
       <c r="B32" s="13" t="s">
         <v>40</v>
@@ -2125,7 +1520,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="33" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="s">
         <v>40</v>
@@ -2142,7 +1537,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" s="16" customFormat="1" ht="16" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="34" spans="1:7" s="16" customFormat="1" ht="16.05" customHeight="1" outlineLevel="1">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
         <v>35</v>
@@ -2159,7 +1554,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="35" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
         <v>37</v>
@@ -2176,7 +1571,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="36" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
         <v>40</v>
@@ -2193,7 +1588,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="37" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
         <v>40</v>
@@ -2210,7 +1605,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="38" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
         <v>35</v>
@@ -2227,7 +1622,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="39" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
         <v>37</v>
@@ -2244,7 +1639,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="40" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
         <v>40</v>
@@ -2261,7 +1656,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
+    <row r="41" spans="1:7" s="16" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
         <v>40</v>
@@ -2278,27 +1673,26 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
     </row>
+    <row r="42" spans="1:7"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="42.2890625" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" customWidth="1"/>
     <col min="3" max="3" width="114" style="1" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" customWidth="1"/>
+    <col min="5" max="5" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2376,28 +1770,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="32.4296875" customWidth="1"/>
-    <col min="2" max="2" width="86.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.4296875" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
+    <col min="2" max="2" width="86.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
@@ -2405,7 +1797,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
         <v>53</v>
       </c>
@@ -2413,7 +1805,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:2">
+    <row r="3" spans="1:4" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>55</v>
       </c>
@@ -2421,7 +1813,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" outlineLevel="1" spans="1:4">
+    <row r="4" spans="1:4" outlineLevel="1">
       <c r="A4" s="10" t="s">
         <v>57</v>
       </c>
@@ -2431,7 +1823,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" outlineLevel="1" spans="1:4">
+    <row r="5" spans="1:4" outlineLevel="1">
       <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
@@ -2441,7 +1833,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" outlineLevel="1" spans="1:4">
+    <row r="6" spans="1:4" outlineLevel="1">
       <c r="A6" s="10" t="s">
         <v>61</v>
       </c>
@@ -2451,7 +1843,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" outlineLevel="1" spans="1:4">
+    <row r="7" spans="1:4" outlineLevel="1">
       <c r="A7" s="10" t="s">
         <v>63</v>
       </c>
@@ -2461,7 +1853,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" outlineLevel="1" spans="1:4">
+    <row r="8" spans="1:4" outlineLevel="1">
       <c r="A8" s="10" t="s">
         <v>65</v>
       </c>
@@ -2471,7 +1863,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" outlineLevel="1" spans="1:4">
+    <row r="9" spans="1:4" outlineLevel="1">
       <c r="A9" s="10" t="s">
         <v>67</v>
       </c>
@@ -2481,29 +1873,28 @@
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
     </row>
+    <row r="10" spans="1:4"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" display="baonq@viettel.com.vn"/>
+    <hyperlink ref="B8" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.2890625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" style="1" customWidth="1"/>
     <col min="3" max="5" width="33" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2524,7 +1915,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" ht="42" spans="1:5">
+    <row r="2" spans="1:5" ht="57.6">
       <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
@@ -2541,7 +1932,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" ht="42" spans="1:5">
+    <row r="3" spans="1:5" ht="43.2">
       <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
@@ -2556,7 +1947,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" ht="84" spans="1:5">
+    <row r="4" spans="1:5" ht="86.4">
       <c r="A4" s="3" t="s">
         <v>73</v>
       </c>
@@ -2571,7 +1962,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" ht="28" spans="1:5">
+    <row r="5" spans="1:5" ht="28.8">
       <c r="A5" s="3" t="s">
         <v>73</v>
       </c>
@@ -2586,7 +1977,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" ht="42" spans="1:5">
+    <row r="6" spans="1:5" ht="43.2">
       <c r="A6" s="3" t="s">
         <v>73</v>
       </c>
@@ -2601,7 +1992,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" ht="28" spans="1:5">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -2616,7 +2007,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:5">
+    <row r="8" spans="1:5" ht="28.8">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
@@ -2631,7 +2022,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" ht="28" spans="1:5">
+    <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
@@ -2646,7 +2037,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:5">
+    <row r="10" spans="1:5" ht="28.8">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
@@ -2676,7 +2067,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="1:5">
+    <row r="12" spans="1:5" ht="28.8">
       <c r="A12" s="3" t="s">
         <v>73</v>
       </c>
@@ -2691,7 +2082,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" ht="28" spans="1:5">
+    <row r="13" spans="1:5" ht="28.8">
       <c r="A13" s="3" t="s">
         <v>73</v>
       </c>
@@ -2708,7 +2099,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" ht="28" spans="1:5">
+    <row r="14" spans="1:5" ht="28.8">
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
@@ -2723,7 +2114,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" ht="42" spans="1:5">
+    <row r="15" spans="1:5" ht="42">
       <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
@@ -2738,7 +2129,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" ht="70" spans="1:5">
+    <row r="16" spans="1:5" ht="70.05">
       <c r="A16" s="3" t="s">
         <v>73</v>
       </c>
@@ -2753,7 +2144,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" ht="28" spans="1:5">
+    <row r="17" spans="1:5" ht="28.05">
       <c r="A17" s="3" t="s">
         <v>120</v>
       </c>
@@ -2768,7 +2159,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" ht="56" spans="1:5">
+    <row r="18" spans="1:5" ht="55.95">
       <c r="A18" s="3" t="s">
         <v>124</v>
       </c>
@@ -2783,7 +2174,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" ht="28" spans="1:5">
+    <row r="19" spans="1:5" ht="28.05">
       <c r="A19" s="3" t="s">
         <v>124</v>
       </c>
@@ -2800,7 +2191,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="409.6">
       <c r="A20" s="3" t="s">
         <v>124</v>
       </c>
@@ -2813,7 +2204,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" ht="28" spans="1:5">
+    <row r="21" spans="1:5" ht="28.05">
       <c r="A21" s="3" t="s">
         <v>124</v>
       </c>
@@ -2828,7 +2219,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="409.6">
       <c r="A22" s="3" t="s">
         <v>124</v>
       </c>
@@ -2843,7 +2234,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="409.6">
       <c r="A23" s="3" t="s">
         <v>124</v>
       </c>
@@ -2858,7 +2249,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="409.6">
       <c r="A24" s="3" t="s">
         <v>143</v>
       </c>
@@ -2873,7 +2264,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" ht="28" spans="1:5">
+    <row r="25" spans="1:5" ht="28.05">
       <c r="A25" s="3" t="s">
         <v>124</v>
       </c>
@@ -2888,7 +2279,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="409.6">
       <c r="A26" s="3" t="s">
         <v>124</v>
       </c>
@@ -2902,7 +2293,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TESTSUITE/TS03.xlsx
+++ b/TESTSUITE/TS03.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10176" tabRatio="462" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16920" windowHeight="7404" tabRatio="462" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ListTestcase" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Param" sheetId="4" r:id="rId4"/>
     <sheet name="Library" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
